--- a/documents/接口表说明.xlsx
+++ b/documents/接口表说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>1、共设计实际表2张，概念表一张。其中实时状态一张表，用于存储实时的服务器状态；历史表一张，用于存储之前各参数的状态；历史续表一张，当历史表中的数据超过一定行数，如500000；自动生成Histroy_1 Histroy_2 以此类推。虽然Access支持中文，但请勿使用中文，以免因为字符集的问题产生不必要的麻烦。</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -183,18 +183,59 @@
     <t>The rows of Lis Message</t>
   </si>
   <si>
-    <t>The size of Table_space Dotas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>para_title</t>
+  </si>
+  <si>
+    <t>para_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>50000000</t>
+  </si>
+  <si>
+    <t>Rows of Lis Message</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>The size of Table_space Daots</t>
+  </si>
+  <si>
+    <t>Size of Database</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="dd\-mmm\-yy"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="184" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,13 +260,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -240,6 +274,18 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -311,35 +357,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -347,13 +372,34 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_Sheet1" xfId="1"/>
+    <cellStyle name="常规_Sheet1_1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -645,178 +691,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="30.25" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="3" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="30.25" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="11" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="7" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="I14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="J14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -827,7 +901,7 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
@@ -839,21 +913,28 @@
         <v>19</v>
       </c>
       <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F16" t="s">
+      <c r="D16" s="2"/>
+      <c r="H16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -864,66 +945,80 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
         <v>26</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>27</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
         <v>33</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>21</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:14">
+      <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="7" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="I22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="J22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -934,7 +1029,7 @@
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
@@ -946,19 +1041,26 @@
         <v>19</v>
       </c>
       <c r="H23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="F24" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="H24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -969,110 +1071,134 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>27</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" t="s">
         <v>33</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>21</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:14">
+      <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:14">
+      <c r="A32" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="4">
+      <c r="H32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="27">
+      <c r="A33" s="9">
+        <v>5</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="11">
+        <v>42113.497361111113</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="40.5">
+      <c r="A34" s="9">
         <v>4</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B34" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D34" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E34" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="6">
+      <c r="F34" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="11">
         <v>42113.494583333333</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="4">
-        <v>5</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="5">
-        <v>50000000</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="6">
-        <v>42113.497361111113</v>
+      <c r="H34" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="A1:I10"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A1:K10"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="C21:N21"/>
+    <mergeCell ref="J14:K14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
